--- a/riskanalysis/data/OrnekMPYSTurkcev2.xlsx
+++ b/riskanalysis/data/OrnekMPYSTurkcev2.xlsx
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
-        <v>18319776784</v>
+        <v>18319776123</v>
       </c>
       <c r="B10" s="5">
         <v>659000</v>
